--- a/data/census 2011/legend/C2011_FSINTESE_VARIAVEIS.xlsx
+++ b/data/census 2011/legend/C2011_FSINTESE_VARIAVEIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desmond\Documents\GitHub\Lisbon-freguesias\data\census 2011\legend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE0F07A-2F57-4C24-8E19-EE703DF697A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C796AF6-46BC-4F2B-B571-FDD589CD41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{546F7D55-0D58-4FB6-850C-DF0D69A0EEC8}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'C2011_FSINTESE_VARIAVEIS'!$A$1:$D$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="415">
   <si>
     <t>Column1</t>
   </si>
@@ -907,13 +908,2190 @@
   </si>
   <si>
     <t>Column12</t>
+  </si>
+  <si>
+    <r>
+      <t>列</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>分配</t>
+  </si>
+  <si>
+    <t>人口普查年份</t>
+  </si>
+  <si>
+    <t>使用的地理代码</t>
+  </si>
+  <si>
+    <t>所用地理描述</t>
+  </si>
+  <si>
+    <t>生产线故障级别</t>
+  </si>
+  <si>
+    <t>行分解级别的说明</t>
+  </si>
+  <si>
+    <t>经典建筑</t>
+  </si>
+  <si>
+    <r>
+      <t>经典建筑的结构建造，拥有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>套住房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>孤立的经典建筑</t>
+  </si>
+  <si>
+    <t>经典的双生建筑</t>
+  </si>
+  <si>
+    <t>乐队中的经典建筑</t>
+  </si>
+  <si>
+    <r>
+      <t>结构上建造的经典建筑，拥有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>个或更多住宿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>另一种经典建筑</t>
+  </si>
+  <si>
+    <t>专用住宅建筑</t>
+  </si>
+  <si>
+    <t>主要是非住宅建筑</t>
+  </si>
+  <si>
+    <t>主要是住宅建筑</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>层或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>层的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>层或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>层的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>层或以上的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1919</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年以前建造的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>建于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1919</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1945</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年之间的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>建于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1946</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1960</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年间的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>建于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1961</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1970</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年间的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>建于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1971</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1980</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年间的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1981</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1990</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年间建造的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1991</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1995</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年间建造的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1996</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年间建造的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年间建造的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>年间建造的建筑物</t>
+    </r>
+  </si>
+  <si>
+    <t>钢筋混凝土结构建筑</t>
+  </si>
+  <si>
+    <t>板式砖石墙结构建筑</t>
+  </si>
+  <si>
+    <t>无板砌体墙结构的建筑物</t>
+  </si>
+  <si>
+    <t>土坯墙结构或松散石砌体的建筑物</t>
+  </si>
+  <si>
+    <t>具有另一种结构的建筑物</t>
+  </si>
+  <si>
+    <t>住宿总数</t>
+  </si>
+  <si>
+    <t>家庭住宿</t>
+  </si>
+  <si>
+    <t>经典家庭住宿</t>
+  </si>
+  <si>
+    <t>非经典家庭住宿</t>
+  </si>
+  <si>
+    <t>集体住宿</t>
+  </si>
+  <si>
+    <t>经典惯常居所</t>
+  </si>
+  <si>
+    <t>惯常居所的家庭住宿</t>
+  </si>
+  <si>
+    <t>空置的家庭住宿</t>
+  </si>
+  <si>
+    <t>带水的惯常居所家庭住宿</t>
+  </si>
+  <si>
+    <t>带下水道的惯常居所的家庭住宿</t>
+  </si>
+  <si>
+    <t>带浴室的惯常居住家庭住宿</t>
+  </si>
+  <si>
+    <r>
+      <t>惯常居住的经典家庭住宿，面积可达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50 m2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>惯常居住的经典家庭住宿，面积为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50 m2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100 m2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>惯常居住的经典家庭住宿，面积为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100 m2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200 m2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>面积大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200 m2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>的惯常居住的经典家庭住宿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>经典家庭住宿，带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>间客房</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>惯常居住的经典家庭住宿，带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>间客房</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>惯常居住的经典家庭住宿，可停放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>辆车</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>惯常居住的经典家庭住宿，可停放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>辆车</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>惯常居住的经典家庭住宿，可停放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>辆车</t>
+    </r>
+  </si>
+  <si>
+    <t>惯常居住的经典家庭住宿，业主居住</t>
+  </si>
+  <si>
+    <t>经典家庭住宿联谊会租赁</t>
+  </si>
+  <si>
+    <t>经典家族总数</t>
+  </si>
+  <si>
+    <t>机构家庭总数</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>人或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>人经典家庭</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>人或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>人的经典家庭</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁及以上人群的经典家庭</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁以下人士的经典家庭</t>
+    </r>
+  </si>
+  <si>
+    <t>没有失业的经典家庭</t>
+  </si>
+  <si>
+    <r>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>个失业者的典型家庭</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>失业人数超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>人的经典家庭</t>
+    </r>
+  </si>
+  <si>
+    <t>居民家庭总数</t>
+  </si>
+  <si>
+    <r>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>个未婚儿子的核心</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>个未婚子女的核心</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁以下儿童的细胞核</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁以下儿童的核心</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁以上孩子的核心</t>
+    </r>
+  </si>
+  <si>
+    <t>在场个人总数</t>
+  </si>
+  <si>
+    <t>在场男性总数</t>
+  </si>
+  <si>
+    <t>在场妇女总数</t>
+  </si>
+  <si>
+    <t>居民个人总数</t>
+  </si>
+  <si>
+    <t>常驻男性总数</t>
+  </si>
+  <si>
+    <t>常驻妇女总数</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的居民个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的居民个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁之间的居民个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的居民个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的居民个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁之间的居民个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的居民个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的居民个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁以上的居民个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的常驻男性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的居民男性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的常驻男性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的常驻男性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的居民男性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的常驻男性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的常驻男性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的常驻男性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁以上的居民男性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的女性居民</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的女性居民</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的女性居民</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的女性居民</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的女性居民</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的女性居民</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的女性居民</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年龄介乎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁的女性居民</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>岁以上的女性居民</t>
+    </r>
+  </si>
+  <si>
+    <t>不懂读写的居民个人</t>
+  </si>
+  <si>
+    <t>参加第一轮初等教育的居民个人</t>
+  </si>
+  <si>
+    <t>生活在初等教育第二周期的个人</t>
+  </si>
+  <si>
+    <t>参加第三阶段初等教育的居民个人</t>
+  </si>
+  <si>
+    <t>就读中学的居民个人</t>
+  </si>
+  <si>
+    <t>就读专上教育的居民个人</t>
+  </si>
+  <si>
+    <t>参加高等教育课程的居民个人</t>
+  </si>
+  <si>
+    <t>小学第一周期的居民个人</t>
+  </si>
+  <si>
+    <t>与小学第二周期一起生活的个人</t>
+  </si>
+  <si>
+    <t>与小学第三周期一起生活的个人</t>
+  </si>
+  <si>
+    <t>具有完整中等教育的居民个人</t>
+  </si>
+  <si>
+    <t>受过专上教育的居民个人</t>
+  </si>
+  <si>
+    <t>具有完整大学学位的居民个人</t>
+  </si>
+  <si>
+    <t>寻找第一份工作的失业居民个人</t>
+  </si>
+  <si>
+    <t>寻找新工作的失业居民个人</t>
+  </si>
+  <si>
+    <t>受雇居民个人</t>
+  </si>
+  <si>
+    <t>居民养老金领取者或养老金领取者</t>
+  </si>
+  <si>
+    <t>没有经济活动的个人</t>
+  </si>
+  <si>
+    <t>受雇于第一产业的居民个人</t>
+  </si>
+  <si>
+    <t>受雇于第二产业的居民个人</t>
+  </si>
+  <si>
+    <t>受雇于第三产业的居民个人</t>
+  </si>
+  <si>
+    <t>在居住地学习的居民个人</t>
+  </si>
+  <si>
+    <t>在居住地市政当局工作的居民个人</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,16 +3107,54 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -946,18 +3162,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -985,27 +3239,29 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{8F49F42F-E2E6-46E6-95B2-019687BCE9F1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="6" unboundColumnsRight="1">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="4" dataBound="0" tableColumnId="4"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B7BED03-7A47-4080-A08A-D130408AFFA8}" name="_C2011_FSINTESE_VARIAVEIS" displayName="_C2011_FSINTESE_VARIAVEIS" ref="A1:D129" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D129" xr:uid="{2B7BED03-7A47-4080-A08A-D130408AFFA8}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{255B76FF-7955-40DC-9101-F4ECA73F9C18}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B0766B57-EA58-4CC1-ACF0-5DB2F00AAF94}" uniqueName="4" name="Column12" queryTableFieldId="4" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B7BED03-7A47-4080-A08A-D130408AFFA8}" name="_C2011_FSINTESE_VARIAVEIS" displayName="_C2011_FSINTESE_VARIAVEIS" ref="A1:E129" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E129" xr:uid="{2B7BED03-7A47-4080-A08A-D130408AFFA8}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{255B76FF-7955-40DC-9101-F4ECA73F9C18}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B0766B57-EA58-4CC1-ACF0-5DB2F00AAF94}" uniqueName="4" name="Column12" queryTableFieldId="4" dataDxfId="3">
       <calculatedColumnFormula>UPPER(A:A)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E1051927-3007-400D-AFEE-FA7624A18E17}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{F42A7C4F-8D19-4EC1-B3D0-2A10EEBE6EA5}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{42758B93-41C6-433C-A5CE-241065C66BAA}" uniqueName="5" name="列2" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1306,12 +3562,32 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{F4E0B4E8-FA94-47C6-AA85-097D384E6858}">
+  <we:reference id="wa104363616" version="1.0.0.0" store="zh-CN" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104363616" version="1.0.0.0" store="WA104363616" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E691321-F2E7-48A2-9E30-B479E2646BF8}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1320,9 +3596,10 @@
     <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1335,8 +3612,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1350,8 +3630,11 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1365,8 +3648,11 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1380,8 +3666,11 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1395,8 +3684,11 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1410,8 +3702,11 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1425,8 +3720,11 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,8 +3738,11 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1455,8 +3756,11 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1470,8 +3774,11 @@
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1485,8 +3792,11 @@
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1500,8 +3810,11 @@
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1515,8 +3828,11 @@
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1530,8 +3846,11 @@
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1545,8 +3864,11 @@
       <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1560,8 +3882,11 @@
       <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1575,8 +3900,11 @@
       <c r="D17" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1590,8 +3918,11 @@
       <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1605,8 +3936,11 @@
       <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1620,8 +3954,11 @@
       <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1635,8 +3972,11 @@
       <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -1650,8 +3990,11 @@
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1665,8 +4008,11 @@
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1680,8 +4026,11 @@
       <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1695,8 +4044,11 @@
       <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -1710,8 +4062,11 @@
       <c r="D26" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -1725,8 +4080,11 @@
       <c r="D27" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -1740,8 +4098,11 @@
       <c r="D28" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -1755,8 +4116,11 @@
       <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -1770,8 +4134,11 @@
       <c r="D30" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -1785,8 +4152,11 @@
       <c r="D31" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -1800,8 +4170,11 @@
       <c r="D32" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -1815,8 +4188,11 @@
       <c r="D33" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
@@ -1830,8 +4206,11 @@
       <c r="D34" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>75</v>
       </c>
@@ -1845,8 +4224,11 @@
       <c r="D35" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
@@ -1860,8 +4242,11 @@
       <c r="D36" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
@@ -1875,8 +4260,11 @@
       <c r="D37" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -1890,8 +4278,11 @@
       <c r="D38" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
@@ -1905,8 +4296,11 @@
       <c r="D39" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
@@ -1920,8 +4314,11 @@
       <c r="D40" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -1935,8 +4332,11 @@
       <c r="D41" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -1950,8 +4350,11 @@
       <c r="D42" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -1965,8 +4368,11 @@
       <c r="D43" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
@@ -1980,8 +4386,11 @@
       <c r="D44" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -1995,8 +4404,11 @@
       <c r="D45" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -2010,8 +4422,11 @@
       <c r="D46" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
@@ -2025,8 +4440,11 @@
       <c r="D47" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>105</v>
       </c>
@@ -2040,8 +4458,11 @@
       <c r="D48" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>108</v>
       </c>
@@ -2055,8 +4476,11 @@
       <c r="D49" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1">
       <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
@@ -2070,8 +4494,11 @@
       <c r="D50" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1">
       <c r="A51" s="1" t="s">
         <v>112</v>
       </c>
@@ -2085,8 +4512,11 @@
       <c r="D51" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1">
       <c r="A52" s="1" t="s">
         <v>114</v>
       </c>
@@ -2100,8 +4530,11 @@
       <c r="D52" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1">
       <c r="A53" s="1" t="s">
         <v>116</v>
       </c>
@@ -2115,8 +4548,11 @@
       <c r="D53" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -2130,8 +4566,11 @@
       <c r="D54" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1">
       <c r="A55" s="1" t="s">
         <v>121</v>
       </c>
@@ -2145,8 +4584,11 @@
       <c r="D55" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
@@ -2160,8 +4602,11 @@
       <c r="D56" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>125</v>
       </c>
@@ -2175,8 +4620,11 @@
       <c r="D57" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>128</v>
       </c>
@@ -2190,8 +4638,11 @@
       <c r="D58" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>130</v>
       </c>
@@ -2205,8 +4656,11 @@
       <c r="D59" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>133</v>
       </c>
@@ -2220,8 +4674,11 @@
       <c r="D60" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1">
       <c r="A61" s="1" t="s">
         <v>136</v>
       </c>
@@ -2235,8 +4692,11 @@
       <c r="D61" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>138</v>
       </c>
@@ -2250,8 +4710,11 @@
       <c r="D62" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1">
       <c r="A63" s="1" t="s">
         <v>140</v>
       </c>
@@ -2265,8 +4728,11 @@
       <c r="D63" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>143</v>
       </c>
@@ -2280,8 +4746,11 @@
       <c r="D64" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1">
       <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
@@ -2295,8 +4764,11 @@
       <c r="D65" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1">
       <c r="A66" s="1" t="s">
         <v>148</v>
       </c>
@@ -2310,8 +4782,11 @@
       <c r="D66" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1">
       <c r="A67" s="1" t="s">
         <v>150</v>
       </c>
@@ -2325,8 +4800,11 @@
       <c r="D67" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1">
       <c r="A68" s="1" t="s">
         <v>152</v>
       </c>
@@ -2340,8 +4818,11 @@
       <c r="D68" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" thickBot="1">
       <c r="A69" s="1" t="s">
         <v>155</v>
       </c>
@@ -2355,8 +4836,11 @@
       <c r="D69" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1">
       <c r="A70" s="1" t="s">
         <v>157</v>
       </c>
@@ -2370,8 +4854,11 @@
       <c r="D70" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickBot="1">
       <c r="A71" s="1" t="s">
         <v>159</v>
       </c>
@@ -2385,8 +4872,11 @@
       <c r="D71" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1">
       <c r="A72" s="1" t="s">
         <v>162</v>
       </c>
@@ -2400,8 +4890,11 @@
       <c r="D72" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1">
       <c r="A73" s="1" t="s">
         <v>164</v>
       </c>
@@ -2415,8 +4908,11 @@
       <c r="D73" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1">
       <c r="A74" s="1" t="s">
         <v>166</v>
       </c>
@@ -2430,8 +4926,11 @@
       <c r="D74" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1">
       <c r="A75" s="1" t="s">
         <v>169</v>
       </c>
@@ -2445,8 +4944,11 @@
       <c r="D75" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1">
       <c r="A76" s="1" t="s">
         <v>171</v>
       </c>
@@ -2460,8 +4962,11 @@
       <c r="D76" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1">
       <c r="A77" s="1" t="s">
         <v>173</v>
       </c>
@@ -2475,8 +4980,11 @@
       <c r="D77" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" thickBot="1">
       <c r="A78" s="1" t="s">
         <v>176</v>
       </c>
@@ -2490,8 +4998,11 @@
       <c r="D78" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1">
       <c r="A79" s="1" t="s">
         <v>178</v>
       </c>
@@ -2505,8 +5016,11 @@
       <c r="D79" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1">
       <c r="A80" s="1" t="s">
         <v>180</v>
       </c>
@@ -2520,8 +5034,11 @@
       <c r="D80" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" thickBot="1">
       <c r="A81" s="1" t="s">
         <v>183</v>
       </c>
@@ -2535,8 +5052,11 @@
       <c r="D81" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1">
       <c r="A82" s="1" t="s">
         <v>185</v>
       </c>
@@ -2550,8 +5070,11 @@
       <c r="D82" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1">
       <c r="A83" s="1" t="s">
         <v>187</v>
       </c>
@@ -2565,8 +5088,11 @@
       <c r="D83" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" thickBot="1">
       <c r="A84" s="1" t="s">
         <v>189</v>
       </c>
@@ -2580,8 +5106,11 @@
       <c r="D84" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" thickBot="1">
       <c r="A85" s="1" t="s">
         <v>191</v>
       </c>
@@ -2595,8 +5124,11 @@
       <c r="D85" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1">
       <c r="A86" s="1" t="s">
         <v>193</v>
       </c>
@@ -2610,8 +5142,11 @@
       <c r="D86" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" thickBot="1">
       <c r="A87" s="1" t="s">
         <v>195</v>
       </c>
@@ -2625,8 +5160,11 @@
       <c r="D87" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1">
       <c r="A88" s="1" t="s">
         <v>197</v>
       </c>
@@ -2640,8 +5178,11 @@
       <c r="D88" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1">
       <c r="A89" s="1" t="s">
         <v>199</v>
       </c>
@@ -2655,8 +5196,11 @@
       <c r="D89" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" thickBot="1">
       <c r="A90" s="1" t="s">
         <v>201</v>
       </c>
@@ -2670,8 +5214,11 @@
       <c r="D90" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" thickBot="1">
       <c r="A91" s="1" t="s">
         <v>203</v>
       </c>
@@ -2685,8 +5232,11 @@
       <c r="D91" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" thickBot="1">
       <c r="A92" s="1" t="s">
         <v>205</v>
       </c>
@@ -2700,8 +5250,11 @@
       <c r="D92" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" thickBot="1">
       <c r="A93" s="1" t="s">
         <v>207</v>
       </c>
@@ -2715,8 +5268,11 @@
       <c r="D93" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" thickBot="1">
       <c r="A94" s="1" t="s">
         <v>209</v>
       </c>
@@ -2730,8 +5286,11 @@
       <c r="D94" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" thickBot="1">
       <c r="A95" s="1" t="s">
         <v>211</v>
       </c>
@@ -2745,8 +5304,11 @@
       <c r="D95" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" thickBot="1">
       <c r="A96" s="1" t="s">
         <v>213</v>
       </c>
@@ -2760,8 +5322,11 @@
       <c r="D96" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" thickBot="1">
       <c r="A97" s="1" t="s">
         <v>215</v>
       </c>
@@ -2775,8 +5340,11 @@
       <c r="D97" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" thickBot="1">
       <c r="A98" s="1" t="s">
         <v>217</v>
       </c>
@@ -2790,8 +5358,11 @@
       <c r="D98" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" thickBot="1">
       <c r="A99" s="1" t="s">
         <v>219</v>
       </c>
@@ -2805,8 +5376,11 @@
       <c r="D99" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" thickBot="1">
       <c r="A100" s="1" t="s">
         <v>221</v>
       </c>
@@ -2820,8 +5394,11 @@
       <c r="D100" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" thickBot="1">
       <c r="A101" s="1" t="s">
         <v>223</v>
       </c>
@@ -2835,8 +5412,11 @@
       <c r="D101" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" thickBot="1">
       <c r="A102" s="1" t="s">
         <v>225</v>
       </c>
@@ -2850,8 +5430,11 @@
       <c r="D102" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" thickBot="1">
       <c r="A103" s="1" t="s">
         <v>227</v>
       </c>
@@ -2865,8 +5448,11 @@
       <c r="D103" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" thickBot="1">
       <c r="A104" s="1" t="s">
         <v>229</v>
       </c>
@@ -2880,8 +5466,11 @@
       <c r="D104" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" thickBot="1">
       <c r="A105" s="1" t="s">
         <v>231</v>
       </c>
@@ -2895,8 +5484,11 @@
       <c r="D105" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" thickBot="1">
       <c r="A106" s="1" t="s">
         <v>233</v>
       </c>
@@ -2910,8 +5502,11 @@
       <c r="D106" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" thickBot="1">
       <c r="A107" s="1" t="s">
         <v>235</v>
       </c>
@@ -2925,8 +5520,11 @@
       <c r="D107" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" thickBot="1">
       <c r="A108" s="1" t="s">
         <v>238</v>
       </c>
@@ -2940,8 +5538,11 @@
       <c r="D108" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" thickBot="1">
       <c r="A109" s="1" t="s">
         <v>240</v>
       </c>
@@ -2955,8 +5556,11 @@
       <c r="D109" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" thickBot="1">
       <c r="A110" s="1" t="s">
         <v>242</v>
       </c>
@@ -2970,8 +5574,11 @@
       <c r="D110" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1">
       <c r="A111" s="1" t="s">
         <v>244</v>
       </c>
@@ -2985,8 +5592,11 @@
       <c r="D111" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" thickBot="1">
       <c r="A112" s="1" t="s">
         <v>246</v>
       </c>
@@ -3000,8 +5610,11 @@
       <c r="D112" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" thickBot="1">
       <c r="A113" s="1" t="s">
         <v>248</v>
       </c>
@@ -3015,8 +5628,11 @@
       <c r="D113" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" thickBot="1">
       <c r="A114" s="1" t="s">
         <v>250</v>
       </c>
@@ -3030,8 +5646,11 @@
       <c r="D114" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" thickBot="1">
       <c r="A115" s="1" t="s">
         <v>252</v>
       </c>
@@ -3045,8 +5664,11 @@
       <c r="D115" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" thickBot="1">
       <c r="A116" s="1" t="s">
         <v>254</v>
       </c>
@@ -3060,8 +5682,11 @@
       <c r="D116" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" thickBot="1">
       <c r="A117" s="1" t="s">
         <v>256</v>
       </c>
@@ -3075,8 +5700,11 @@
       <c r="D117" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" thickBot="1">
       <c r="A118" s="1" t="s">
         <v>258</v>
       </c>
@@ -3090,8 +5718,11 @@
       <c r="D118" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" thickBot="1">
       <c r="A119" s="1" t="s">
         <v>260</v>
       </c>
@@ -3105,8 +5736,11 @@
       <c r="D119" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" thickBot="1">
       <c r="A120" s="1" t="s">
         <v>262</v>
       </c>
@@ -3120,8 +5754,11 @@
       <c r="D120" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" thickBot="1">
       <c r="A121" s="1" t="s">
         <v>265</v>
       </c>
@@ -3135,8 +5772,11 @@
       <c r="D121" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" thickBot="1">
       <c r="A122" s="1" t="s">
         <v>267</v>
       </c>
@@ -3150,8 +5790,11 @@
       <c r="D122" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" thickBot="1">
       <c r="A123" s="1" t="s">
         <v>269</v>
       </c>
@@ -3165,8 +5808,11 @@
       <c r="D123" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" thickBot="1">
       <c r="A124" s="1" t="s">
         <v>271</v>
       </c>
@@ -3180,8 +5826,11 @@
       <c r="D124" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" thickBot="1">
       <c r="A125" s="1" t="s">
         <v>273</v>
       </c>
@@ -3195,8 +5844,11 @@
       <c r="D125" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" thickBot="1">
       <c r="A126" s="1" t="s">
         <v>276</v>
       </c>
@@ -3210,8 +5862,11 @@
       <c r="D126" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" thickBot="1">
       <c r="A127" s="1" t="s">
         <v>278</v>
       </c>
@@ -3225,8 +5880,11 @@
       <c r="D127" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" thickBot="1">
       <c r="A128" s="1" t="s">
         <v>280</v>
       </c>
@@ -3240,8 +5898,11 @@
       <c r="D128" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" thickBot="1">
       <c r="A129" s="1" t="s">
         <v>283</v>
       </c>
@@ -3255,12 +5916,16 @@
       <c r="D129" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="E129" s="4" t="s">
+        <v>414</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data/census 2011/legend/C2011_FSINTESE_VARIAVEIS.xlsx
+++ b/data/census 2011/legend/C2011_FSINTESE_VARIAVEIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desmond\Documents\GitHub\Lisbon-freguesias\data\census 2011\legend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C796AF6-46BC-4F2B-B571-FDD589CD41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D70F1D-9F1B-412D-A02C-86B4160F4B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{546F7D55-0D58-4FB6-850C-DF0D69A0EEC8}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'C2011_FSINTESE_VARIAVEIS'!$A$1:$D$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -926,9 +925,6 @@
     </r>
   </si>
   <si>
-    <t>分配</t>
-  </si>
-  <si>
     <t>人口普查年份</t>
   </si>
   <si>
@@ -3085,6 +3081,9 @@
   </si>
   <si>
     <t>在居住地市政当局工作的居民个人</t>
+  </si>
+  <si>
+    <t>意思</t>
   </si>
 </sst>
 </file>
@@ -3586,8 +3585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E691321-F2E7-48A2-9E30-B479E2646BF8}">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B109" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3631,7 +3630,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
@@ -3649,7 +3648,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
@@ -3667,7 +3666,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1">
@@ -3685,7 +3684,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1">
@@ -3703,7 +3702,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1">
@@ -3721,7 +3720,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
@@ -3739,7 +3738,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
@@ -3757,7 +3756,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
@@ -3775,7 +3774,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
@@ -3793,7 +3792,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1">
@@ -3811,7 +3810,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
@@ -3829,7 +3828,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
@@ -3847,7 +3846,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
@@ -3865,7 +3864,7 @@
         <v>34</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
@@ -3883,7 +3882,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1">
@@ -3901,7 +3900,7 @@
         <v>34</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1">
@@ -3919,7 +3918,7 @@
         <v>41</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1">
@@ -3937,7 +3936,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1">
@@ -3955,7 +3954,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
@@ -3973,7 +3972,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1">
@@ -3991,7 +3990,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1">
@@ -4009,7 +4008,7 @@
         <v>41</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1">
@@ -4027,7 +4026,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1">
@@ -4045,7 +4044,7 @@
         <v>41</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1">
@@ -4063,7 +4062,7 @@
         <v>41</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1">
@@ -4081,7 +4080,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1">
@@ -4099,7 +4098,7 @@
         <v>41</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1">
@@ -4117,7 +4116,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1">
@@ -4135,7 +4134,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1">
@@ -4153,7 +4152,7 @@
         <v>68</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1">
@@ -4171,7 +4170,7 @@
         <v>68</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1">
@@ -4189,7 +4188,7 @@
         <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1">
@@ -4207,7 +4206,7 @@
         <v>68</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1">
@@ -4225,7 +4224,7 @@
         <v>68</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1">
@@ -4243,7 +4242,7 @@
         <v>79</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1">
@@ -4261,7 +4260,7 @@
         <v>79</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1">
@@ -4279,7 +4278,7 @@
         <v>79</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1">
@@ -4297,7 +4296,7 @@
         <v>79</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1">
@@ -4315,7 +4314,7 @@
         <v>79</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1">
@@ -4333,7 +4332,7 @@
         <v>79</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1">
@@ -4351,7 +4350,7 @@
         <v>79</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1">
@@ -4369,7 +4368,7 @@
         <v>79</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1">
@@ -4387,7 +4386,7 @@
         <v>96</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1">
@@ -4405,7 +4404,7 @@
         <v>99</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1">
@@ -4423,7 +4422,7 @@
         <v>99</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1">
@@ -4441,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1">
@@ -4459,7 +4458,7 @@
         <v>107</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1">
@@ -4477,7 +4476,7 @@
         <v>107</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1">
@@ -4495,7 +4494,7 @@
         <v>107</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1">
@@ -4513,7 +4512,7 @@
         <v>107</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1">
@@ -4531,7 +4530,7 @@
         <v>107</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1">
@@ -4549,7 +4548,7 @@
         <v>107</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1">
@@ -4567,7 +4566,7 @@
         <v>120</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1">
@@ -4585,7 +4584,7 @@
         <v>120</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1">
@@ -4603,7 +4602,7 @@
         <v>120</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1">
@@ -4621,7 +4620,7 @@
         <v>127</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1">
@@ -4639,7 +4638,7 @@
         <v>127</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1">
@@ -4657,7 +4656,7 @@
         <v>132</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1">
@@ -4675,7 +4674,7 @@
         <v>135</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1">
@@ -4693,7 +4692,7 @@
         <v>132</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1">
@@ -4711,7 +4710,7 @@
         <v>132</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1">
@@ -4729,7 +4728,7 @@
         <v>142</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1">
@@ -4747,7 +4746,7 @@
         <v>142</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1">
@@ -4765,7 +4764,7 @@
         <v>147</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1">
@@ -4783,7 +4782,7 @@
         <v>147</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1">
@@ -4801,7 +4800,7 @@
         <v>147</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1">
@@ -4819,7 +4818,7 @@
         <v>154</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1">
@@ -4837,7 +4836,7 @@
         <v>154</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1">
@@ -4855,7 +4854,7 @@
         <v>154</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1">
@@ -4873,7 +4872,7 @@
         <v>161</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1">
@@ -4891,7 +4890,7 @@
         <v>154</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1">
@@ -4909,7 +4908,7 @@
         <v>154</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1">
@@ -4927,7 +4926,7 @@
         <v>168</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1">
@@ -4945,7 +4944,7 @@
         <v>168</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1">
@@ -4963,7 +4962,7 @@
         <v>168</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1">
@@ -4981,7 +4980,7 @@
         <v>175</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1">
@@ -4999,7 +4998,7 @@
         <v>175</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1">
@@ -5017,7 +5016,7 @@
         <v>175</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1">
@@ -5035,7 +5034,7 @@
         <v>182</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1">
@@ -5053,7 +5052,7 @@
         <v>182</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1">
@@ -5071,7 +5070,7 @@
         <v>182</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1">
@@ -5089,7 +5088,7 @@
         <v>182</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1">
@@ -5107,7 +5106,7 @@
         <v>182</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1">
@@ -5125,7 +5124,7 @@
         <v>182</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1">
@@ -5143,7 +5142,7 @@
         <v>182</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1">
@@ -5161,7 +5160,7 @@
         <v>182</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1">
@@ -5179,7 +5178,7 @@
         <v>182</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1">
@@ -5197,7 +5196,7 @@
         <v>182</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1">
@@ -5215,7 +5214,7 @@
         <v>182</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1">
@@ -5233,7 +5232,7 @@
         <v>182</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1">
@@ -5251,7 +5250,7 @@
         <v>182</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1">
@@ -5269,7 +5268,7 @@
         <v>182</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1">
@@ -5287,7 +5286,7 @@
         <v>182</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1">
@@ -5305,7 +5304,7 @@
         <v>182</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1">
@@ -5323,7 +5322,7 @@
         <v>182</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1">
@@ -5341,7 +5340,7 @@
         <v>182</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1">
@@ -5359,7 +5358,7 @@
         <v>182</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1">
@@ -5377,7 +5376,7 @@
         <v>182</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1">
@@ -5395,7 +5394,7 @@
         <v>182</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1">
@@ -5413,7 +5412,7 @@
         <v>182</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1">
@@ -5431,7 +5430,7 @@
         <v>182</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1">
@@ -5449,7 +5448,7 @@
         <v>182</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1">
@@ -5467,7 +5466,7 @@
         <v>182</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" thickBot="1">
@@ -5485,7 +5484,7 @@
         <v>182</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1">
@@ -5503,7 +5502,7 @@
         <v>182</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1">
@@ -5521,7 +5520,7 @@
         <v>237</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1">
@@ -5539,7 +5538,7 @@
         <v>237</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1">
@@ -5557,7 +5556,7 @@
         <v>237</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1">
@@ -5575,7 +5574,7 @@
         <v>237</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1">
@@ -5593,7 +5592,7 @@
         <v>237</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1">
@@ -5611,7 +5610,7 @@
         <v>237</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1">
@@ -5629,7 +5628,7 @@
         <v>237</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" thickBot="1">
@@ -5647,7 +5646,7 @@
         <v>237</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1">
@@ -5665,7 +5664,7 @@
         <v>237</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" thickBot="1">
@@ -5683,7 +5682,7 @@
         <v>237</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1">
@@ -5701,7 +5700,7 @@
         <v>237</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1">
@@ -5719,7 +5718,7 @@
         <v>237</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" thickBot="1">
@@ -5737,7 +5736,7 @@
         <v>237</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1">
@@ -5755,7 +5754,7 @@
         <v>264</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1">
@@ -5773,7 +5772,7 @@
         <v>264</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1">
@@ -5791,7 +5790,7 @@
         <v>264</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1">
@@ -5809,7 +5808,7 @@
         <v>264</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" thickBot="1">
@@ -5827,7 +5826,7 @@
         <v>264</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" thickBot="1">
@@ -5845,7 +5844,7 @@
         <v>275</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" thickBot="1">
@@ -5863,7 +5862,7 @@
         <v>275</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" thickBot="1">
@@ -5881,7 +5880,7 @@
         <v>275</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" thickBot="1">
@@ -5899,7 +5898,7 @@
         <v>282</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" thickBot="1">
@@ -5917,7 +5916,7 @@
         <v>285</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
